--- a/lista_dados.xlsx
+++ b/lista_dados.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,60 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Razão social</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>cnpj</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>emails</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>telefones</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>40432544000147</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>['atendimento.fiscalizacoes@claro.com.br']</t>
-        </is>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>parc</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>24097265000118</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['(11) 4313-4620']</t>
+          <t>['giovanna.jardim@omie.com.vc']</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>['(71) 3034-1040']</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>vivo</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>40432544000147</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>['atendimento.fiscalizacoes@claro.com.br']</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>['(11) 4313-4620']</t>
         </is>
